--- a/biology/Zoologie/Hasora/Hasora.xlsx
+++ b/biology/Zoologie/Hasora/Hasora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hasora regroupe des insectes lépidoptères de la famille des Hesperiidae et de la sous-famille des Coeliadinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été nommés Hasora par Frederic Moore en 1881
 </t>
@@ -542,18 +556,20 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hasora alexis (Fabricius); présent en Inde, au Sri Lanka, au Baloutchistan et en Birmanie.
 Hasora alta de Jong, 1982; à Sumatra.
 Hasora anura de Nicéville, 1889; en Birmanie, Thaïlande et au Laos.
-Hasora badra (Moore, [1858]); présent en Inde, au Sri Lanka, en Malaisie, Chine, Japon, à Sumatra, Java, Bornéo et au Sulawesi.
+Hasora badra (Moore, ); présent en Inde, au Sri Lanka, en Malaisie, Chine, Japon, à Sumatra, Java, Bornéo et au Sulawesi.
 Hasora borneensis Elwes &amp; Edwards, 1897;
 Hasora buina Evans, 1926;
 Hasora caeruleostriata de Jong, 1982; aux Philippines.
 Hasora celaenus (Stoll, 1782); aux Moluques et en Nouvelle-Guinée.
 Hasora coeruleostriata De Jong, 1982;
-Hasora chromus (Cramer, [1780]) dans le sud de la Chine, en Malaisie et en Australie.
+Hasora chromus (Cramer, ) dans le sud de la Chine, en Malaisie et en Australie.
 Hasora chromus chromus
 Hasora chromus inermis Elwes &amp; Edwards, 1897; au Japon.
 Hasora danda Evans, 1949; en Birmanie, Thaïlande et au Laos.
@@ -561,7 +577,7 @@
 Hasora fushigina Maruyama &amp; Ueda, 1992;
 Hasora hurama (Butler, 1870); en Australie et en Nouvelle-Guinée.
 Hasora khoda (Mabille, 1876)
-Hasora khoda coulteri Wood-Mason et de Nicéville, [1887]; en Inde, Birmanie et Thaïlande.
+Hasora khoda coulteri Wood-Mason et de Nicéville, ; en Inde, Birmanie et Thaïlande.
 Hasora khoda dampierensis Rothschild, 1915; en Nouvelle-Guinée.
 Hasora khoda haslia Swinhoe, 1899; en Australie.
 Hasora khoda latalba de Jong, 1982;
@@ -569,11 +585,11 @@
 Hasora khoda minsona Swinhoe, 1907
 Hasora lavella Evans, 1928;
 Hasora leucospila (Mabille, 1891)en Malaisie, Thaïlande, Birmanie, à Sumatra, Java, Bornéo et au Sulawesi.
-Hasora lizetta (Plötz, [1883]); présent en Malaisie et à Java.
+Hasora lizetta (Plötz, ); présent en Malaisie et à Java.
 Hasora mixta (Mabille, 1876)
 Hasora moestissima (Mabille, 1876)
 Hasora mus Elwes et Edwards, 1897; présent en Malaisie.
-Hasora myra (Hewitson, [1867]); présent en Malaisie et en Thaïlande.
+Hasora myra (Hewitson, ); présent en Malaisie et en Thaïlande.
 Hasora perplexa (Mabille, 1876)
 Hasora proximata (Staudinger, 1889)
 Hasora proxissima Elwes et Edwards, 1897
@@ -583,13 +599,13 @@
 Hasora quadripunctata (Mabille, 1876)
 Hasora sakit Maruyama et Ueda, 1992;
 Hasora salanga (Plötz, 1885); présent en Malaisie, Thaïlande, Birmanie, à Sumatra et Bornéo.
-Hasora schoenherr (Latreille, [1824]); en Malaisie et à Java.
-Hasora schoenherr chuza (Hewitson, [1867]) en Thaïlande, Malaisie, à Sumatra et Bornéo.
+Hasora schoenherr (Latreille, ); en Malaisie et à Java.
+Hasora schoenherr chuza (Hewitson, ) en Thaïlande, Malaisie, à Sumatra et Bornéo.
 Hasora schoenherr gaspa Evans, 1949; en Inde, Thaïlande, Birmanie, Laos, Vietnam.
 Hasora simillima Rothschild, 1916;
 Hasora subcaelestis Rothschild, 1916; en Nouvelle-Guinée.
 Hasora takwa Evans, 1949; en Nouvelle-Guinée.
-Hasora taminatus (Hübner, [1818])dans tout le sud-est de l'Asie.
+Hasora taminatus (Hübner, )dans tout le sud-est de l'Asie.
 Hasora taminatus taminatus en Inde, au Sri Lanka et en Birmanie.
 Hasora taminatus amboinensis Swinhoe, 1909; en Papouasie.
 Hasora taminatus attenuata (Mabille, 1904)
